--- a/SchedulingData/dynamic14/pso/scheduling1_11.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling1_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>74.04000000000001</v>
+        <v>76.31999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>26.776</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>54.44</v>
+        <v>63.98</v>
       </c>
       <c r="E3" t="n">
-        <v>26.256</v>
+        <v>26.752</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>77.3</v>
+        <v>68.5</v>
       </c>
       <c r="E4" t="n">
-        <v>26.92</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="5">
@@ -523,93 +523,93 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>74.04000000000001</v>
+        <v>63.98</v>
       </c>
       <c r="D5" t="n">
-        <v>125.24</v>
+        <v>129.64</v>
       </c>
       <c r="E5" t="n">
-        <v>22.296</v>
+        <v>23.276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>77.3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>115.94</v>
+        <v>55.2</v>
       </c>
       <c r="E6" t="n">
-        <v>23.696</v>
+        <v>25.68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>125.24</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>182.38</v>
+        <v>87.12</v>
       </c>
       <c r="E7" t="n">
-        <v>18.712</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>68.5</v>
       </c>
       <c r="D8" t="n">
-        <v>34.78</v>
+        <v>113.68</v>
       </c>
       <c r="E8" t="n">
-        <v>27.712</v>
+        <v>21.932</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>129.64</v>
       </c>
       <c r="D9" t="n">
-        <v>65.5</v>
+        <v>188.2</v>
       </c>
       <c r="E9" t="n">
-        <v>25.14</v>
+        <v>20.02</v>
       </c>
     </row>
     <row r="10">
@@ -618,74 +618,74 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>34.78</v>
+        <v>55.2</v>
       </c>
       <c r="D10" t="n">
-        <v>84.95999999999999</v>
+        <v>116.2</v>
       </c>
       <c r="E10" t="n">
-        <v>24.324</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>182.38</v>
+        <v>113.68</v>
       </c>
       <c r="D11" t="n">
-        <v>225.84</v>
+        <v>160.82</v>
       </c>
       <c r="E11" t="n">
-        <v>15.496</v>
+        <v>18.348</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>160.82</v>
       </c>
       <c r="D12" t="n">
-        <v>81.31999999999999</v>
+        <v>218.42</v>
       </c>
       <c r="E12" t="n">
-        <v>27.008</v>
+        <v>14.708</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>54.44</v>
+        <v>116.2</v>
       </c>
       <c r="D13" t="n">
-        <v>104.32</v>
+        <v>176.7</v>
       </c>
       <c r="E13" t="n">
-        <v>22.408</v>
+        <v>18.24</v>
       </c>
     </row>
     <row r="14">
@@ -694,55 +694,55 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>115.94</v>
+        <v>76.31999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>180.64</v>
+        <v>125.84</v>
       </c>
       <c r="E14" t="n">
-        <v>19.856</v>
+        <v>22.696</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>104.32</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>174.26</v>
+        <v>44.44</v>
       </c>
       <c r="E15" t="n">
-        <v>19.504</v>
+        <v>26.256</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>84.95999999999999</v>
+        <v>87.12</v>
       </c>
       <c r="D16" t="n">
-        <v>122.22</v>
+        <v>154.02</v>
       </c>
       <c r="E16" t="n">
-        <v>21.728</v>
+        <v>22.888</v>
       </c>
     </row>
     <row r="17">
@@ -751,188 +751,188 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>225.84</v>
+        <v>188.2</v>
       </c>
       <c r="D17" t="n">
-        <v>279.54</v>
+        <v>242.8</v>
       </c>
       <c r="E17" t="n">
-        <v>12.736</v>
+        <v>16.18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>81.31999999999999</v>
+        <v>218.42</v>
       </c>
       <c r="D18" t="n">
-        <v>123.02</v>
+        <v>276.32</v>
       </c>
       <c r="E18" t="n">
-        <v>24.968</v>
+        <v>10.548</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>174.26</v>
+        <v>242.8</v>
       </c>
       <c r="D19" t="n">
-        <v>243.92</v>
+        <v>299.86</v>
       </c>
       <c r="E19" t="n">
-        <v>17.128</v>
+        <v>13.584</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>279.54</v>
+        <v>154.02</v>
       </c>
       <c r="D20" t="n">
-        <v>346.16</v>
+        <v>204.92</v>
       </c>
       <c r="E20" t="n">
-        <v>8.704000000000001</v>
+        <v>18.928</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>122.22</v>
+        <v>276.32</v>
       </c>
       <c r="D21" t="n">
-        <v>175.42</v>
+        <v>312.82</v>
       </c>
       <c r="E21" t="n">
-        <v>17.048</v>
+        <v>8.028</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>175.42</v>
+        <v>44.44</v>
       </c>
       <c r="D22" t="n">
-        <v>227.9</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>12.94</v>
+        <v>23.88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>123.02</v>
+        <v>176.7</v>
       </c>
       <c r="D23" t="n">
-        <v>176.68</v>
+        <v>210.1</v>
       </c>
       <c r="E23" t="n">
-        <v>21.712</v>
+        <v>16.04</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>346.16</v>
+        <v>204.92</v>
       </c>
       <c r="D24" t="n">
-        <v>379.92</v>
+        <v>253.58</v>
       </c>
       <c r="E24" t="n">
-        <v>5.968</v>
+        <v>16.192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>65.5</v>
+        <v>125.84</v>
       </c>
       <c r="D25" t="n">
-        <v>171.3</v>
+        <v>210.12</v>
       </c>
       <c r="E25" t="n">
-        <v>20.64</v>
+        <v>18.848</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>227.9</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>274.26</v>
+        <v>180.82</v>
       </c>
       <c r="E26" t="n">
-        <v>9.923999999999999</v>
+        <v>19.848</v>
       </c>
     </row>
     <row r="27">
@@ -941,207 +941,207 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>243.92</v>
+        <v>312.82</v>
       </c>
       <c r="D27" t="n">
-        <v>311.72</v>
+        <v>385.1</v>
       </c>
       <c r="E27" t="n">
-        <v>12.968</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>379.92</v>
+        <v>385.1</v>
       </c>
       <c r="D28" t="n">
-        <v>428.66</v>
+        <v>448.56</v>
       </c>
       <c r="E28" t="n">
-        <v>2.224</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>274.26</v>
+        <v>448.56</v>
       </c>
       <c r="D29" t="n">
-        <v>361.66</v>
+        <v>533.75</v>
       </c>
       <c r="E29" t="n">
-        <v>6.284</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>171.3</v>
+        <v>299.86</v>
       </c>
       <c r="D30" t="n">
-        <v>227.92</v>
+        <v>345.18</v>
       </c>
       <c r="E30" t="n">
-        <v>16.608</v>
+        <v>10.672</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>176.68</v>
+        <v>210.12</v>
       </c>
       <c r="D31" t="n">
-        <v>240.36</v>
+        <v>291.22</v>
       </c>
       <c r="E31" t="n">
-        <v>18.984</v>
+        <v>16.808</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>311.72</v>
+        <v>345.18</v>
       </c>
       <c r="D32" t="n">
-        <v>362.12</v>
+        <v>406.34</v>
       </c>
       <c r="E32" t="n">
-        <v>9.548</v>
+        <v>8.176</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>180.64</v>
+        <v>210.1</v>
       </c>
       <c r="D33" t="n">
-        <v>241.44</v>
+        <v>261.5</v>
       </c>
       <c r="E33" t="n">
-        <v>15.896</v>
+        <v>11.54</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>240.36</v>
+        <v>533.75</v>
       </c>
       <c r="D34" t="n">
-        <v>273.28</v>
+        <v>602.49</v>
       </c>
       <c r="E34" t="n">
-        <v>16.332</v>
+        <v>26.776</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>273.28</v>
+        <v>291.22</v>
       </c>
       <c r="D35" t="n">
-        <v>345.28</v>
+        <v>384.36</v>
       </c>
       <c r="E35" t="n">
-        <v>12.252</v>
+        <v>13.584</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>227.92</v>
+        <v>261.5</v>
       </c>
       <c r="D36" t="n">
-        <v>309.52</v>
+        <v>318.12</v>
       </c>
       <c r="E36" t="n">
-        <v>12.528</v>
+        <v>7.508</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>345.28</v>
+        <v>384.36</v>
       </c>
       <c r="D37" t="n">
-        <v>408.74</v>
+        <v>427.84</v>
       </c>
       <c r="E37" t="n">
-        <v>9.516</v>
+        <v>10.856</v>
       </c>
     </row>
     <row r="38">
@@ -1150,36 +1150,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>408.74</v>
+        <v>253.58</v>
       </c>
       <c r="D38" t="n">
-        <v>454.54</v>
+        <v>316.54</v>
       </c>
       <c r="E38" t="n">
-        <v>6.556</v>
+        <v>12.496</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>362.12</v>
+        <v>180.82</v>
       </c>
       <c r="D39" t="n">
-        <v>398.62</v>
+        <v>255.42</v>
       </c>
       <c r="E39" t="n">
-        <v>7.028</v>
+        <v>14.988</v>
       </c>
     </row>
     <row r="40">
@@ -1188,109 +1188,109 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>309.52</v>
+        <v>255.42</v>
       </c>
       <c r="D40" t="n">
-        <v>364.42</v>
+        <v>297.92</v>
       </c>
       <c r="E40" t="n">
-        <v>9.148</v>
+        <v>11.868</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>364.42</v>
+        <v>427.84</v>
       </c>
       <c r="D41" t="n">
-        <v>453.72</v>
+        <v>460.76</v>
       </c>
       <c r="E41" t="n">
-        <v>4.828</v>
+        <v>8.204000000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>361.66</v>
+        <v>297.92</v>
       </c>
       <c r="D42" t="n">
-        <v>407.72</v>
+        <v>371.02</v>
       </c>
       <c r="E42" t="n">
-        <v>2.808</v>
+        <v>8.148</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>454.54</v>
+        <v>318.12</v>
       </c>
       <c r="D43" t="n">
-        <v>541.0599999999999</v>
+        <v>381.66</v>
       </c>
       <c r="E43" t="n">
-        <v>2.524</v>
+        <v>3.764</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>453.72</v>
+        <v>381.66</v>
       </c>
       <c r="D44" t="n">
-        <v>499.14</v>
+        <v>420.32</v>
       </c>
       <c r="E44" t="n">
-        <v>1.916</v>
+        <v>1.028</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>499.14</v>
+        <v>420.32</v>
       </c>
       <c r="D45" t="n">
-        <v>567.21</v>
+        <v>500.06</v>
       </c>
       <c r="E45" t="n">
         <v>30</v>
@@ -1298,135 +1298,135 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>398.62</v>
+        <v>371.02</v>
       </c>
       <c r="D46" t="n">
-        <v>449.78</v>
+        <v>406.46</v>
       </c>
       <c r="E46" t="n">
-        <v>4.532</v>
+        <v>5.244</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>241.44</v>
+        <v>406.46</v>
       </c>
       <c r="D47" t="n">
-        <v>300.76</v>
+        <v>478.16</v>
       </c>
       <c r="E47" t="n">
-        <v>11.584</v>
+        <v>1.164</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>449.78</v>
+        <v>478.16</v>
       </c>
       <c r="D48" t="n">
-        <v>513.1799999999999</v>
+        <v>542.83</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8120000000000001</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>513.1799999999999</v>
+        <v>406.34</v>
       </c>
       <c r="D49" t="n">
-        <v>603.0599999999999</v>
+        <v>465.14</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>5.416</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>300.76</v>
+        <v>316.54</v>
       </c>
       <c r="D50" t="n">
-        <v>344.54</v>
+        <v>345.82</v>
       </c>
       <c r="E50" t="n">
-        <v>8.336</v>
+        <v>10.208</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>344.54</v>
+        <v>500.06</v>
       </c>
       <c r="D51" t="n">
-        <v>432.5</v>
+        <v>541.26</v>
       </c>
       <c r="E51" t="n">
-        <v>4.64</v>
+        <v>26.58</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>432.5</v>
+        <v>465.14</v>
       </c>
       <c r="D52" t="n">
-        <v>500</v>
+        <v>525.14</v>
       </c>
       <c r="E52" t="n">
-        <v>1.52</v>
+        <v>2.036</v>
       </c>
     </row>
     <row r="53">
@@ -1435,17 +1435,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>500</v>
+        <v>460.76</v>
       </c>
       <c r="D53" t="n">
-        <v>568.96</v>
+        <v>532.76</v>
       </c>
       <c r="E53" t="n">
-        <v>30</v>
+        <v>4.124</v>
       </c>
     </row>
     <row r="54">
@@ -1454,36 +1454,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>407.72</v>
+        <v>541.26</v>
       </c>
       <c r="D54" t="n">
-        <v>490.42</v>
+        <v>612.3200000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>0.608</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>3</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>depot1</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>490.42</v>
-      </c>
-      <c r="D55" t="n">
-        <v>590.5</v>
-      </c>
-      <c r="E55" t="n">
-        <v>30</v>
+        <v>23.564</v>
       </c>
     </row>
   </sheetData>
